--- a/public/admin_asset/samples/admin_template.xlsx
+++ b/public/admin_asset/samples/admin_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shabeersha\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shabeersha\ESAB Distributer\WWW\esabdis\public\admin_asset\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E1EE0B-1264-47AC-B5F2-76C25444F46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4DBD13-D5F8-4B95-9581-FAE136EF7806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{355DF7DF-D487-4C09-929C-A3CBCA197F83}"/>
+    <workbookView xWindow="5715" yWindow="4275" windowWidth="28770" windowHeight="15450" xr2:uid="{355DF7DF-D487-4C09-929C-A3CBCA197F83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>UOM</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>FM</t>
-  </si>
-  <si>
-    <t>L1</t>
   </si>
   <si>
     <r>
@@ -68,23 +65,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">LOT NO
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enter LOT No</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Category
 </t>
     </r>
@@ -101,31 +81,16 @@
     </r>
   </si>
   <si>
-    <t>48004040V0</t>
-  </si>
-  <si>
     <t>KGM</t>
   </si>
   <si>
-    <t>OK 48.00 4.0x450mm 3/4 VP</t>
-  </si>
-  <si>
-    <t>Country Code</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>48004040V12</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
     <t>OK 48.00 4.0x450mm 3/4 Vp1</t>
   </si>
   <si>
-    <t>IN</t>
+    <t>48004040V122</t>
+  </si>
+  <si>
+    <t>48004040V02</t>
   </si>
 </sst>
 </file>
@@ -535,80 +500,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A11E3A-3600-4714-A18D-7EE838A8E9E9}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
